--- a/va_facility_data_2025-02-20/Kalispell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kalispell%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Kalispell VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Kalispell%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R47aa378ae90b4eb58812d038ac56caef"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1527d18c704242ffae2a4b4c12c5249c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3f1f8c46c2d64ee1842f536021686050"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R11c9c340306c476d81dc1e43180447ef"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfc4d4a118544426a95157a1bd66b2e1f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5d280a87de3f455793c9fee690095f13"/>
   </x:sheets>
 </x:workbook>
 </file>
